--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1823.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1823.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.894958869382046</v>
+        <v>0.8972259163856506</v>
       </c>
       <c r="B1">
-        <v>2.538350391667738</v>
+        <v>1.306082129478455</v>
       </c>
       <c r="C1">
-        <v>2.705379184583307</v>
+        <v>5.2569580078125</v>
       </c>
       <c r="D1">
-        <v>3.31561497346999</v>
+        <v>1.611467838287354</v>
       </c>
       <c r="E1">
-        <v>1.210677240980077</v>
+        <v>0.9421895742416382</v>
       </c>
     </row>
   </sheetData>
